--- a/public/doc/jadwal/TEMPLATE-JADWAL.xlsx
+++ b/public/doc/jadwal/TEMPLATE-JADWAL.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moch Syarif Hidayat\Documents\EDII\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moch Syarif Hidayat\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B079964-3E96-42AF-8A68-EAC03E78235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2104762A-DB20-441C-BD8D-C7ECA114255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{388A68D9-74F6-4BAC-8402-80E9FC4240EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{388A68D9-74F6-4BAC-8402-80E9FC4240EA}"/>
   </bookViews>
   <sheets>
     <sheet name="JADWAL" sheetId="1" r:id="rId1"/>
-    <sheet name="URAIAN JADWAL" sheetId="2" r:id="rId2"/>
+    <sheet name="UR MCU" sheetId="7" r:id="rId2"/>
+    <sheet name="UR BIMBINGAN" sheetId="8" r:id="rId3"/>
+    <sheet name="UR PASSPORT" sheetId="9" r:id="rId4"/>
+    <sheet name="UR MANASIK" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>NOMOR LAYANAN</t>
   </si>
@@ -49,63 +52,12 @@
     <t>TIPE JADWAL</t>
   </si>
   <si>
-    <t>JANGKA WAKTU</t>
-  </si>
-  <si>
     <t>TANGGAL MULAI</t>
   </si>
   <si>
     <t>TANGGAL SELESAI</t>
   </si>
   <si>
-    <t>TGL MULAI MCU</t>
-  </si>
-  <si>
-    <t>TGL SELESAI MCU</t>
-  </si>
-  <si>
-    <t>JAM MULAI MCU</t>
-  </si>
-  <si>
-    <t>JAM SELESAI MCU</t>
-  </si>
-  <si>
-    <t>TEMPAT MCU</t>
-  </si>
-  <si>
-    <t>TGL MULAI BIMBINGAN</t>
-  </si>
-  <si>
-    <t>TGL SELESAI BIMBINGAN</t>
-  </si>
-  <si>
-    <t>JAM SELESAI BIMBINGAN</t>
-  </si>
-  <si>
-    <t>JAM MULAI BIMBINGAN</t>
-  </si>
-  <si>
-    <t>NAMA BIMBINGAN</t>
-  </si>
-  <si>
-    <t>TGL MULAI PASSPORT</t>
-  </si>
-  <si>
-    <t>TGL SELESAI PASSPORT</t>
-  </si>
-  <si>
-    <t>JAM MULAI PASSPORT</t>
-  </si>
-  <si>
-    <t>JAM SELESAI PASSPORT</t>
-  </si>
-  <si>
-    <t>TEMPAT PEMBUATAN PASSPORT</t>
-  </si>
-  <si>
-    <t>Testing Mosyahizuku</t>
-  </si>
-  <si>
     <t>MCU</t>
   </si>
   <si>
@@ -115,19 +67,115 @@
     <t>BIMBINGAN</t>
   </si>
   <si>
-    <t>FLAG</t>
-  </si>
-  <si>
-    <t>KBIH Wadi Fatimah</t>
-  </si>
-  <si>
-    <t>Kosolidasi</t>
-  </si>
-  <si>
-    <t>Bimbingan Rute Umroh</t>
-  </si>
-  <si>
-    <t>Kantor KBIH Wadi Fatimah Cirebon</t>
+    <t>JAM MULAI</t>
+  </si>
+  <si>
+    <t>JAM SELESAI</t>
+  </si>
+  <si>
+    <t>TEMPAT</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>MANASIK</t>
+  </si>
+  <si>
+    <t>Wadi Fatimah</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Wadi Fatimah Bogor</t>
+  </si>
+  <si>
+    <t>Harus Tepat Waktu</t>
+  </si>
+  <si>
+    <t>Wadi Fatimah Surabaya</t>
+  </si>
+  <si>
+    <t>Harap bawa berkas yang sudah dihimbau</t>
+  </si>
+  <si>
+    <t>Wadi Fatimah Jakarta</t>
+  </si>
+  <si>
+    <t>Harap sudah memakai perlengkaan manasik</t>
+  </si>
+  <si>
+    <t>Jadwal Layanan MCU</t>
+  </si>
+  <si>
+    <t>Jadwal Layanan Pembuatan Passport</t>
+  </si>
+  <si>
+    <t>Jadwal Layanan Bimbingan/Konseling</t>
+  </si>
+  <si>
+    <t>Jadwal Layanan Manasik Haji</t>
+  </si>
+  <si>
+    <t>Cek Kesehatan Mata</t>
+  </si>
+  <si>
+    <t>Cek Kesehatan Jantung</t>
+  </si>
+  <si>
+    <t>Cek Kesehatan Paru-Paru</t>
+  </si>
+  <si>
+    <t>Cek Kesehatan Badan</t>
+  </si>
+  <si>
+    <t>Cek Kesehatan Organ dalam Lainnya</t>
+  </si>
+  <si>
+    <t>Materi Haji 1</t>
+  </si>
+  <si>
+    <t>Materi Haji 2</t>
+  </si>
+  <si>
+    <t>Materi Haji 3</t>
+  </si>
+  <si>
+    <t>Materi Haji 4</t>
+  </si>
+  <si>
+    <t>Materi Haji 5</t>
+  </si>
+  <si>
+    <t>Verifikasi Biodata</t>
+  </si>
+  <si>
+    <t>Verifikasi Ke Kemenag</t>
+  </si>
+  <si>
+    <t>Pemberkasan</t>
+  </si>
+  <si>
+    <t>Foto Passport</t>
+  </si>
+  <si>
+    <t>Percetakan Passport</t>
+  </si>
+  <si>
+    <t>Manasik Haji 1</t>
+  </si>
+  <si>
+    <t>Manasik Haji 2</t>
+  </si>
+  <si>
+    <t>Manasik Haji 3</t>
+  </si>
+  <si>
+    <t>Manasik Haji 4</t>
+  </si>
+  <si>
+    <t>Manasik Haji 5</t>
   </si>
 </sst>
 </file>
@@ -136,9 +184,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,25 +203,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF212529"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -242,16 +275,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -260,45 +293,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -310,13 +310,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,123 +651,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C659A8-81BE-46E0-A694-D67C502BA4DA}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="25.77734375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="25.77734375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="25.77734375" style="14" customWidth="1"/>
-    <col min="6" max="7" width="25.77734375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="1" max="2" width="25.77734375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="25.77734375" style="4" customWidth="1"/>
+    <col min="5" max="6" width="25.77734375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>11200060010</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10000028989</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
-        <v>11200014067</v>
-      </c>
-      <c r="B2" s="14">
-        <v>10000028989</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="5">
+        <v>45516</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>11200060010</v>
+      </c>
+      <c r="B3" s="3">
+        <v>20000000023</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45585</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>11200060010</v>
+      </c>
+      <c r="B4" s="3">
+        <v>30000000098</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16">
-        <v>45427</v>
-      </c>
-      <c r="G2" s="16">
-        <v>45431</v>
-      </c>
-      <c r="H2">
-        <v>1000213021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
-        <v>11200084064</v>
-      </c>
-      <c r="B3" s="14">
-        <v>30000000023</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45621</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>11200060010</v>
+      </c>
+      <c r="B5" s="3">
+        <v>40000000098</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14">
-        <v>3</v>
-      </c>
-      <c r="F3" s="16">
-        <v>45427</v>
-      </c>
-      <c r="G3" s="16">
-        <v>45431</v>
-      </c>
-      <c r="H3">
-        <v>1000213021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
-        <v>11200024217</v>
-      </c>
-      <c r="B4" s="14">
-        <v>20000000098</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="14">
-        <v>3</v>
-      </c>
-      <c r="F4" s="16">
-        <v>45427</v>
-      </c>
-      <c r="G4" s="16">
-        <v>45431</v>
-      </c>
-      <c r="H4">
-        <v>1000213021</v>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45648</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45680</v>
       </c>
     </row>
   </sheetData>
@@ -757,247 +771,715 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B7BEF4-01AF-4544-A61A-04CF9FC6D325}">
-  <dimension ref="A1:Q7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1ACE989-CC84-4C15-9446-AC512613CF6D}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="6" customWidth="1"/>
-    <col min="2" max="3" width="20.77734375" style="7" customWidth="1"/>
-    <col min="4" max="5" width="20.77734375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" style="9" customWidth="1"/>
-    <col min="12" max="13" width="20.77734375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="8" customWidth="1"/>
-    <col min="15" max="15" width="23.33203125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="31.33203125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.77734375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" style="14" customWidth="1"/>
+    <col min="6" max="7" width="17.77734375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>10000028989</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45638</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45639</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="H2" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>10000028989</v>
+      </c>
+      <c r="B3" s="13">
+        <v>45639</v>
+      </c>
+      <c r="C3" s="13">
+        <v>45640</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="G3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>10000028989</v>
       </c>
-      <c r="B2" s="16">
-        <v>45427</v>
-      </c>
-      <c r="C2" s="16">
-        <v>45429</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="B4" s="13">
+        <v>45640</v>
+      </c>
+      <c r="C4" s="13">
+        <v>45641</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E4" s="14">
         <v>0.5</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>10000028989</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45641</v>
+      </c>
+      <c r="C5" s="13">
+        <v>45642</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="14">
         <v>0.5</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="Q2">
-        <v>200011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="F5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>10000028989</v>
       </c>
-      <c r="B3" s="16">
-        <v>45428</v>
-      </c>
-      <c r="C3" s="16">
-        <v>45430</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="Q3">
-        <v>200011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>30000000023</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="G4" s="16">
-        <v>45435</v>
-      </c>
-      <c r="H4" s="16">
-        <v>45435</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="Q4">
-        <v>200011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>30000000023</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="G5" s="16">
-        <v>45436</v>
-      </c>
-      <c r="H5" s="16">
-        <v>45436</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="Q5">
-        <v>200011</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>20000000098</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="L6" s="16">
-        <v>45437</v>
-      </c>
-      <c r="M6" s="16">
-        <v>45437</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="O6" s="8">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="P6" s="9" t="s">
+      <c r="B6" s="13">
+        <v>45642</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45643</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="Q6">
-        <v>200011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>20000000098</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="L7" s="16">
-        <v>45438</v>
-      </c>
-      <c r="M7" s="16">
-        <v>45438</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7">
-        <v>200011</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0473EB-B6A5-450F-A12B-F7DD078C61A1}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.77734375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" style="14" customWidth="1"/>
+    <col min="6" max="7" width="17.77734375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>20000000023</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45303</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45304</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>20000000023</v>
+      </c>
+      <c r="B3" s="13">
+        <v>45304</v>
+      </c>
+      <c r="C3" s="13">
+        <v>45305</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>20000000023</v>
+      </c>
+      <c r="B4" s="13">
+        <v>45305</v>
+      </c>
+      <c r="C4" s="13">
+        <v>45306</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>20000000023</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45306</v>
+      </c>
+      <c r="C5" s="13">
+        <v>45307</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>20000000023</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45307</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45308</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DED2A3-2B1A-42BA-81DF-718325ADF322}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.77734375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" style="14" customWidth="1"/>
+    <col min="6" max="7" width="17.77734375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>30000000098</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45658</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45659</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>30000000098</v>
+      </c>
+      <c r="B3" s="13">
+        <v>45659</v>
+      </c>
+      <c r="C3" s="13">
+        <v>45660</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>30000000098</v>
+      </c>
+      <c r="B4" s="13">
+        <v>45660</v>
+      </c>
+      <c r="C4" s="13">
+        <v>45661</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>30000000098</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45661</v>
+      </c>
+      <c r="C5" s="13">
+        <v>45662</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>30000000098</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45662</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45663</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9103FE1F-1D62-4851-A7BA-3797E1297378}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" style="10" customWidth="1"/>
+    <col min="2" max="3" width="17.77734375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="17.77734375" style="14" customWidth="1"/>
+    <col min="6" max="7" width="17.77734375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.77734375" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>40000000098</v>
+      </c>
+      <c r="B2" s="13">
+        <v>45538</v>
+      </c>
+      <c r="C2" s="13">
+        <v>45538</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>40000000098</v>
+      </c>
+      <c r="B3" s="13">
+        <v>45539</v>
+      </c>
+      <c r="C3" s="13">
+        <v>45539</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>40000000098</v>
+      </c>
+      <c r="B4" s="13">
+        <v>45540</v>
+      </c>
+      <c r="C4" s="13">
+        <v>45540</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>40000000098</v>
+      </c>
+      <c r="B5" s="13">
+        <v>45541</v>
+      </c>
+      <c r="C5" s="13">
+        <v>45541</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>40000000098</v>
+      </c>
+      <c r="B6" s="13">
+        <v>45542</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45542</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>